--- a/SVS_IMPORT_FORMAT.xlsx
+++ b/SVS_IMPORT_FORMAT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0574D30-3FD9-475D-B1CF-FBA79FDA1163}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F94FD-A162-4ABF-B1A7-F8275FD33CE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22515" yWindow="2760" windowWidth="20115" windowHeight="9930" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28230" yWindow="5235" windowWidth="20115" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SVS_IMPORT_FORMAT" sheetId="2" r:id="rId1"/>
@@ -66,15 +66,9 @@
     <t>company_id</t>
   </si>
   <si>
-    <t>2019-1006</t>
-  </si>
-  <si>
     <t>2019-1004</t>
   </si>
   <si>
-    <t>2019-1003</t>
-  </si>
-  <si>
     <t>2019-1010</t>
   </si>
   <si>
@@ -126,16 +120,22 @@
     <t>customer_id</t>
   </si>
   <si>
-    <t>2021 SVS Project</t>
-  </si>
-  <si>
-    <t>2019-1002</t>
-  </si>
-  <si>
     <t>target_man_days</t>
   </si>
   <si>
     <t>Task 2</t>
+  </si>
+  <si>
+    <t>2020-C7DVWDZ7</t>
+  </si>
+  <si>
+    <t>2019-UIDMS</t>
+  </si>
+  <si>
+    <t>2020-JH9UHG26</t>
+  </si>
+  <si>
+    <t>MANILA GREY SVS</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6F89B1-F1C8-4F81-AFF8-898276C7AC65}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,12 +529,12 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -636,12 +636,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -659,22 +659,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -687,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650E47C4-B0DA-4F73-9355-FE3F5C1D7D08}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -701,27 +701,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -752,10 +752,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
